--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ucn2-Crhr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ucn2-Crhr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.1018866666666667</v>
+        <v>0.120459</v>
       </c>
       <c r="H2">
-        <v>0.30566</v>
+        <v>0.361377</v>
       </c>
       <c r="I2">
-        <v>0.0359969498102464</v>
+        <v>0.04905187708668686</v>
       </c>
       <c r="J2">
-        <v>0.0359969498102464</v>
+        <v>0.04905187708668686</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.01553</v>
+        <v>0.1856783333333334</v>
       </c>
       <c r="N2">
-        <v>0.04659</v>
+        <v>0.5570350000000001</v>
       </c>
       <c r="O2">
-        <v>0.01249712651925654</v>
+        <v>0.1687333435516107</v>
       </c>
       <c r="P2">
-        <v>0.01249712651925654</v>
+        <v>0.1687333435516107</v>
       </c>
       <c r="Q2">
-        <v>0.001582299933333333</v>
+        <v>0.022366626355</v>
       </c>
       <c r="R2">
-        <v>0.0142406994</v>
+        <v>0.201299637195</v>
       </c>
       <c r="S2">
-        <v>0.0004498584360859771</v>
+        <v>0.008276687228319316</v>
       </c>
       <c r="T2">
-        <v>0.0004498584360859771</v>
+        <v>0.008276687228319314</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,22 +599,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.1018866666666667</v>
+        <v>0.120459</v>
       </c>
       <c r="H3">
-        <v>0.30566</v>
+        <v>0.361377</v>
       </c>
       <c r="I3">
-        <v>0.0359969498102464</v>
+        <v>0.04905187708668686</v>
       </c>
       <c r="J3">
-        <v>0.0359969498102464</v>
+        <v>0.04905187708668686</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -629,22 +629,22 @@
         <v>0.135017</v>
       </c>
       <c r="O3">
-        <v>0.03621645269908694</v>
+        <v>0.04089845314263524</v>
       </c>
       <c r="P3">
-        <v>0.03621645269908695</v>
+        <v>0.04089845314263523</v>
       </c>
       <c r="Q3">
-        <v>0.004585477357777778</v>
+        <v>0.005421337601</v>
       </c>
       <c r="R3">
-        <v>0.04126929621999999</v>
+        <v>0.048792038409</v>
       </c>
       <c r="S3">
-        <v>0.001303681830114195</v>
+        <v>0.002006145896588166</v>
       </c>
       <c r="T3">
-        <v>0.001303681830114196</v>
+        <v>0.002006145896588165</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,22 +661,22 @@
         <v>23</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.1018866666666667</v>
+        <v>0.120459</v>
       </c>
       <c r="H4">
-        <v>0.30566</v>
+        <v>0.361377</v>
       </c>
       <c r="I4">
-        <v>0.0359969498102464</v>
+        <v>0.04905187708668686</v>
       </c>
       <c r="J4">
-        <v>0.0359969498102464</v>
+        <v>0.04905187708668686</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,33 +685,33 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.18215</v>
+        <v>0.8184133333333333</v>
       </c>
       <c r="N4">
-        <v>3.54645</v>
+        <v>2.45524</v>
       </c>
       <c r="O4">
-        <v>0.9512864207816565</v>
+        <v>0.7437249982885396</v>
       </c>
       <c r="P4">
-        <v>0.9512864207816565</v>
+        <v>0.7437249982885394</v>
       </c>
       <c r="Q4">
-        <v>0.120445323</v>
+        <v>0.09858525172</v>
       </c>
       <c r="R4">
-        <v>1.084007907</v>
+        <v>0.88726726548</v>
       </c>
       <c r="S4">
-        <v>0.03424340954404623</v>
+        <v>0.03648110720234584</v>
       </c>
       <c r="T4">
-        <v>0.03424340954404623</v>
+        <v>0.03648110720234583</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -720,25 +720,25 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.934719</v>
+        <v>0.120459</v>
       </c>
       <c r="H5">
-        <v>2.804157</v>
+        <v>0.361377</v>
       </c>
       <c r="I5">
-        <v>0.3302398049762845</v>
+        <v>0.04905187708668686</v>
       </c>
       <c r="J5">
-        <v>0.3302398049762845</v>
+        <v>0.04905187708668686</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -747,28 +747,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.01553</v>
+        <v>0.05132733333333334</v>
       </c>
       <c r="N5">
-        <v>0.04659</v>
+        <v>0.153982</v>
       </c>
       <c r="O5">
-        <v>0.01249712651925654</v>
+        <v>0.04664320501721457</v>
       </c>
       <c r="P5">
-        <v>0.01249712651925654</v>
+        <v>0.04664320501721456</v>
       </c>
       <c r="Q5">
-        <v>0.01451618607</v>
+        <v>0.006182839246</v>
       </c>
       <c r="R5">
-        <v>0.13064567463</v>
+        <v>0.05564555321400001</v>
       </c>
       <c r="S5">
-        <v>0.004127048624483234</v>
+        <v>0.002287936759433545</v>
       </c>
       <c r="T5">
-        <v>0.004127048624483234</v>
+        <v>0.002287936759433545</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,7 +782,7 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -797,40 +797,40 @@
         <v>2.804157</v>
       </c>
       <c r="I6">
-        <v>0.3302398049762845</v>
+        <v>0.3806251213989063</v>
       </c>
       <c r="J6">
-        <v>0.3302398049762845</v>
+        <v>0.3806251213989063</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.04500566666666667</v>
+        <v>0.1856783333333334</v>
       </c>
       <c r="N6">
-        <v>0.135017</v>
+        <v>0.5570350000000001</v>
       </c>
       <c r="O6">
-        <v>0.03621645269908694</v>
+        <v>0.1687333435516107</v>
       </c>
       <c r="P6">
-        <v>0.03621645269908695</v>
+        <v>0.1687333435516107</v>
       </c>
       <c r="Q6">
-        <v>0.042067651741</v>
+        <v>0.173557066055</v>
       </c>
       <c r="R6">
-        <v>0.378608865669</v>
+        <v>1.562013594495</v>
       </c>
       <c r="S6">
-        <v>0.0119601142762793</v>
+        <v>0.06422414937337519</v>
       </c>
       <c r="T6">
-        <v>0.01196011427627931</v>
+        <v>0.06422414937337517</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,7 +844,7 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -859,45 +859,45 @@
         <v>2.804157</v>
       </c>
       <c r="I7">
-        <v>0.3302398049762845</v>
+        <v>0.3806251213989063</v>
       </c>
       <c r="J7">
-        <v>0.3302398049762845</v>
+        <v>0.3806251213989063</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>1.18215</v>
+        <v>0.04500566666666667</v>
       </c>
       <c r="N7">
-        <v>3.54645</v>
+        <v>0.135017</v>
       </c>
       <c r="O7">
-        <v>0.9512864207816565</v>
+        <v>0.04089845314263524</v>
       </c>
       <c r="P7">
-        <v>0.9512864207816565</v>
+        <v>0.04089845314263523</v>
       </c>
       <c r="Q7">
-        <v>1.10497806585</v>
+        <v>0.042067651741</v>
       </c>
       <c r="R7">
-        <v>9.944802592649999</v>
+        <v>0.378608865669</v>
       </c>
       <c r="S7">
-        <v>0.3141526420755219</v>
+        <v>0.01556697869244302</v>
       </c>
       <c r="T7">
-        <v>0.3141526420755219</v>
+        <v>0.01556697869244301</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -915,51 +915,51 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.3663483333333333</v>
+        <v>0.934719</v>
       </c>
       <c r="H8">
-        <v>1.099045</v>
+        <v>2.804157</v>
       </c>
       <c r="I8">
-        <v>0.1294322701832175</v>
+        <v>0.3806251213989063</v>
       </c>
       <c r="J8">
-        <v>0.1294322701832175</v>
+        <v>0.3806251213989063</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.01553</v>
+        <v>0.8184133333333333</v>
       </c>
       <c r="N8">
-        <v>0.04659</v>
+        <v>2.45524</v>
       </c>
       <c r="O8">
-        <v>0.01249712651925654</v>
+        <v>0.7437249982885396</v>
       </c>
       <c r="P8">
-        <v>0.01249712651925654</v>
+        <v>0.7437249982885394</v>
       </c>
       <c r="Q8">
-        <v>0.005689389616666667</v>
+        <v>0.7649864925199999</v>
       </c>
       <c r="R8">
-        <v>0.05120450655</v>
+        <v>6.88487843268</v>
       </c>
       <c r="S8">
-        <v>0.001617531456154265</v>
+        <v>0.2830804177609768</v>
       </c>
       <c r="T8">
-        <v>0.001617531456154265</v>
+        <v>0.2830804177609766</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.3663483333333333</v>
+        <v>0.934719</v>
       </c>
       <c r="H9">
-        <v>1.099045</v>
+        <v>2.804157</v>
       </c>
       <c r="I9">
-        <v>0.1294322701832175</v>
+        <v>0.3806251213989063</v>
       </c>
       <c r="J9">
-        <v>0.1294322701832175</v>
+        <v>0.3806251213989063</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -995,28 +995,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.04500566666666667</v>
+        <v>0.05132733333333334</v>
       </c>
       <c r="N9">
-        <v>0.135017</v>
+        <v>0.153982</v>
       </c>
       <c r="O9">
-        <v>0.03621645269908694</v>
+        <v>0.04664320501721457</v>
       </c>
       <c r="P9">
-        <v>0.03621645269908695</v>
+        <v>0.04664320501721456</v>
       </c>
       <c r="Q9">
-        <v>0.01648775097388889</v>
+        <v>0.047976633686</v>
       </c>
       <c r="R9">
-        <v>0.148389758765</v>
+        <v>0.431789703174</v>
       </c>
       <c r="S9">
-        <v>0.004687577690825937</v>
+        <v>0.01775357557211137</v>
       </c>
       <c r="T9">
-        <v>0.004687577690825938</v>
+        <v>0.01775357557211137</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.3663483333333333</v>
+        <v>0.3829246666666667</v>
       </c>
       <c r="H10">
-        <v>1.099045</v>
+        <v>1.148774</v>
       </c>
       <c r="I10">
-        <v>0.1294322701832175</v>
+        <v>0.155930015049053</v>
       </c>
       <c r="J10">
-        <v>0.1294322701832175</v>
+        <v>0.155930015049053</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,33 +1057,33 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.18215</v>
+        <v>0.1856783333333334</v>
       </c>
       <c r="N10">
-        <v>3.54645</v>
+        <v>0.5570350000000001</v>
       </c>
       <c r="O10">
-        <v>0.9512864207816565</v>
+        <v>0.1687333435516107</v>
       </c>
       <c r="P10">
-        <v>0.9512864207816565</v>
+        <v>0.1687333435516107</v>
       </c>
       <c r="Q10">
-        <v>0.43307868225</v>
+        <v>0.07110081389888892</v>
       </c>
       <c r="R10">
-        <v>3.89770814025</v>
+        <v>0.6399073250900001</v>
       </c>
       <c r="S10">
-        <v>0.1231271610362373</v>
+        <v>0.02631059279927968</v>
       </c>
       <c r="T10">
-        <v>0.1231271610362373</v>
+        <v>0.02631059279927968</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,7 +1092,7 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.9796620000000001</v>
+        <v>0.3829246666666667</v>
       </c>
       <c r="H11">
-        <v>2.938986</v>
+        <v>1.148774</v>
       </c>
       <c r="I11">
-        <v>0.3461183391186837</v>
+        <v>0.155930015049053</v>
       </c>
       <c r="J11">
-        <v>0.3461183391186836</v>
+        <v>0.155930015049053</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1119,43 +1119,43 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.01553</v>
+        <v>0.04500566666666667</v>
       </c>
       <c r="N11">
-        <v>0.04659</v>
+        <v>0.135017</v>
       </c>
       <c r="O11">
-        <v>0.01249712651925654</v>
+        <v>0.04089845314263524</v>
       </c>
       <c r="P11">
-        <v>0.01249712651925654</v>
+        <v>0.04089845314263523</v>
       </c>
       <c r="Q11">
-        <v>0.01521415086</v>
+        <v>0.01723377990644445</v>
       </c>
       <c r="R11">
-        <v>0.13692735774</v>
+        <v>0.155104019158</v>
       </c>
       <c r="S11">
-        <v>0.004325484674601132</v>
+        <v>0.006377296414014101</v>
       </c>
       <c r="T11">
-        <v>0.004325484674601131</v>
+        <v>0.006377296414014099</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="B12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
       <c r="E12">
         <v>3</v>
       </c>
@@ -1163,51 +1163,51 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.9796620000000001</v>
+        <v>0.3829246666666667</v>
       </c>
       <c r="H12">
-        <v>2.938986</v>
+        <v>1.148774</v>
       </c>
       <c r="I12">
-        <v>0.3461183391186837</v>
+        <v>0.155930015049053</v>
       </c>
       <c r="J12">
-        <v>0.3461183391186836</v>
+        <v>0.155930015049053</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.04500566666666667</v>
+        <v>0.8184133333333333</v>
       </c>
       <c r="N12">
-        <v>0.135017</v>
+        <v>2.45524</v>
       </c>
       <c r="O12">
-        <v>0.03621645269908694</v>
+        <v>0.7437249982885396</v>
       </c>
       <c r="P12">
-        <v>0.03621645269908695</v>
+        <v>0.7437249982885394</v>
       </c>
       <c r="Q12">
-        <v>0.04409034141800001</v>
+        <v>0.3133906528622223</v>
       </c>
       <c r="R12">
-        <v>0.3968130727620001</v>
+        <v>2.82051587576</v>
       </c>
       <c r="S12">
-        <v>0.01253517845697834</v>
+        <v>0.1159690501754889</v>
       </c>
       <c r="T12">
-        <v>0.01253517845697834</v>
+        <v>0.1159690501754888</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1216,7 +1216,7 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1225,51 +1225,51 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.9796620000000001</v>
+        <v>0.3829246666666667</v>
       </c>
       <c r="H13">
-        <v>2.938986</v>
+        <v>1.148774</v>
       </c>
       <c r="I13">
-        <v>0.3461183391186837</v>
+        <v>0.155930015049053</v>
       </c>
       <c r="J13">
-        <v>0.3461183391186836</v>
+        <v>0.155930015049053</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>1.18215</v>
+        <v>0.05132733333333334</v>
       </c>
       <c r="N13">
-        <v>3.54645</v>
+        <v>0.153982</v>
       </c>
       <c r="O13">
-        <v>0.9512864207816565</v>
+        <v>0.04664320501721457</v>
       </c>
       <c r="P13">
-        <v>0.9512864207816565</v>
+        <v>0.04664320501721456</v>
       </c>
       <c r="Q13">
-        <v>1.1581074333</v>
+        <v>0.01965450200755556</v>
       </c>
       <c r="R13">
-        <v>10.4229668997</v>
+        <v>0.176890518068</v>
       </c>
       <c r="S13">
-        <v>0.3292576759871042</v>
+        <v>0.007273075660270332</v>
       </c>
       <c r="T13">
-        <v>0.3292576759871041</v>
+        <v>0.007273075660270329</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1281,57 +1281,57 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.1566013333333333</v>
+        <v>0.588294</v>
       </c>
       <c r="H14">
-        <v>0.469804</v>
+        <v>1.764882</v>
       </c>
       <c r="I14">
-        <v>0.05532785123553294</v>
+        <v>0.2395580652241456</v>
       </c>
       <c r="J14">
-        <v>0.05532785123553294</v>
+        <v>0.2395580652241456</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.01553</v>
+        <v>0.1856783333333334</v>
       </c>
       <c r="N14">
-        <v>0.04659</v>
+        <v>0.5570350000000001</v>
       </c>
       <c r="O14">
-        <v>0.01249712651925654</v>
+        <v>0.1687333435516107</v>
       </c>
       <c r="P14">
-        <v>0.01249712651925654</v>
+        <v>0.1687333435516107</v>
       </c>
       <c r="Q14">
-        <v>0.002432018706666667</v>
+        <v>0.10923344943</v>
       </c>
       <c r="R14">
-        <v>0.02188816836</v>
+        <v>0.9831010448700002</v>
       </c>
       <c r="S14">
-        <v>0.0006914391569290598</v>
+        <v>0.04042143332002493</v>
       </c>
       <c r="T14">
-        <v>0.0006914391569290598</v>
+        <v>0.04042143332002492</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1343,22 +1343,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.1566013333333333</v>
+        <v>0.588294</v>
       </c>
       <c r="H15">
-        <v>0.469804</v>
+        <v>1.764882</v>
       </c>
       <c r="I15">
-        <v>0.05532785123553294</v>
+        <v>0.2395580652241456</v>
       </c>
       <c r="J15">
-        <v>0.05532785123553294</v>
+        <v>0.2395580652241456</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1373,27 +1373,27 @@
         <v>0.135017</v>
       </c>
       <c r="O15">
-        <v>0.03621645269908694</v>
+        <v>0.04089845314263524</v>
       </c>
       <c r="P15">
-        <v>0.03621645269908695</v>
+        <v>0.04089845314263523</v>
       </c>
       <c r="Q15">
-        <v>0.007047947407555556</v>
+        <v>0.026476563666</v>
       </c>
       <c r="R15">
-        <v>0.063431526668</v>
+        <v>0.238289072994</v>
       </c>
       <c r="S15">
-        <v>0.002003778507213798</v>
+        <v>0.009797554305510076</v>
       </c>
       <c r="T15">
-        <v>0.002003778507213799</v>
+        <v>0.009797554305510074</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1405,22 +1405,22 @@
         <v>23</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.1566013333333333</v>
+        <v>0.588294</v>
       </c>
       <c r="H16">
-        <v>0.469804</v>
+        <v>1.764882</v>
       </c>
       <c r="I16">
-        <v>0.05532785123553294</v>
+        <v>0.2395580652241456</v>
       </c>
       <c r="J16">
-        <v>0.05532785123553294</v>
+        <v>0.2395580652241456</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,60 +1429,60 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.18215</v>
+        <v>0.8184133333333333</v>
       </c>
       <c r="N16">
-        <v>3.54645</v>
+        <v>2.45524</v>
       </c>
       <c r="O16">
-        <v>0.9512864207816565</v>
+        <v>0.7437249982885396</v>
       </c>
       <c r="P16">
-        <v>0.9512864207816565</v>
+        <v>0.7437249982885394</v>
       </c>
       <c r="Q16">
-        <v>0.1851262662</v>
+        <v>0.48146765352</v>
       </c>
       <c r="R16">
-        <v>1.6661363958</v>
+        <v>4.33320888168</v>
       </c>
       <c r="S16">
-        <v>0.05263263357139009</v>
+        <v>0.1781653216488336</v>
       </c>
       <c r="T16">
-        <v>0.05263263357139009</v>
+        <v>0.1781653216488335</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>25</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.2912076666666666</v>
+        <v>0.588294</v>
       </c>
       <c r="H17">
-        <v>0.8736229999999999</v>
+        <v>1.764882</v>
       </c>
       <c r="I17">
-        <v>0.1028847846760351</v>
+        <v>0.2395580652241456</v>
       </c>
       <c r="J17">
-        <v>0.1028847846760351</v>
+        <v>0.2395580652241456</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -1491,33 +1491,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>0.01553</v>
+        <v>0.05132733333333334</v>
       </c>
       <c r="N17">
-        <v>0.04659</v>
+        <v>0.153982</v>
       </c>
       <c r="O17">
-        <v>0.01249712651925654</v>
+        <v>0.04664320501721457</v>
       </c>
       <c r="P17">
-        <v>0.01249712651925654</v>
+        <v>0.04664320501721456</v>
       </c>
       <c r="Q17">
-        <v>0.004522455063333333</v>
+        <v>0.030195562236</v>
       </c>
       <c r="R17">
-        <v>0.04070209557</v>
+        <v>0.271760060124</v>
       </c>
       <c r="S17">
-        <v>0.001285764171002878</v>
+        <v>0.01117375594977709</v>
       </c>
       <c r="T17">
-        <v>0.001285764171002878</v>
+        <v>0.01117375594977708</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,7 +1526,7 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E18">
         <v>2</v>
@@ -1535,51 +1535,51 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.2912076666666666</v>
+        <v>0.2955663333333334</v>
       </c>
       <c r="H18">
-        <v>0.8736229999999999</v>
+        <v>0.8866990000000001</v>
       </c>
       <c r="I18">
-        <v>0.1028847846760351</v>
+        <v>0.1203569966015772</v>
       </c>
       <c r="J18">
-        <v>0.1028847846760351</v>
+        <v>0.1203569966015772</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>0.04500566666666667</v>
+        <v>0.1856783333333334</v>
       </c>
       <c r="N18">
-        <v>0.135017</v>
+        <v>0.5570350000000001</v>
       </c>
       <c r="O18">
-        <v>0.03621645269908694</v>
+        <v>0.1687333435516107</v>
       </c>
       <c r="P18">
-        <v>0.03621645269908695</v>
+        <v>0.1687333435516107</v>
       </c>
       <c r="Q18">
-        <v>0.01310599517677778</v>
+        <v>0.0548802641627778</v>
       </c>
       <c r="R18">
-        <v>0.117953956591</v>
+        <v>0.4939223774650001</v>
       </c>
       <c r="S18">
-        <v>0.00372612193767537</v>
+        <v>0.02030823845641396</v>
       </c>
       <c r="T18">
-        <v>0.003726121937675371</v>
+        <v>0.02030823845641396</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,7 +1588,7 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E19">
         <v>2</v>
@@ -1597,46 +1597,418 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.2912076666666666</v>
+        <v>0.2955663333333334</v>
       </c>
       <c r="H19">
-        <v>0.8736229999999999</v>
+        <v>0.8866990000000001</v>
       </c>
       <c r="I19">
-        <v>0.1028847846760351</v>
+        <v>0.1203569966015772</v>
       </c>
       <c r="J19">
-        <v>0.1028847846760351</v>
+        <v>0.1203569966015772</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M19">
-        <v>1.18215</v>
+        <v>0.04500566666666667</v>
       </c>
       <c r="N19">
-        <v>3.54645</v>
+        <v>0.135017</v>
       </c>
       <c r="O19">
-        <v>0.9512864207816565</v>
+        <v>0.04089845314263524</v>
       </c>
       <c r="P19">
-        <v>0.9512864207816565</v>
+        <v>0.04089845314263523</v>
       </c>
       <c r="Q19">
-        <v>0.34425114315</v>
+        <v>0.01330215987588889</v>
       </c>
       <c r="R19">
-        <v>3.09826028835</v>
+        <v>0.119719438883</v>
       </c>
       <c r="S19">
-        <v>0.09787289856735684</v>
+        <v>0.004922414985897913</v>
       </c>
       <c r="T19">
-        <v>0.09787289856735684</v>
+        <v>0.004922414985897912</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>0.2955663333333334</v>
+      </c>
+      <c r="H20">
+        <v>0.8866990000000001</v>
+      </c>
+      <c r="I20">
+        <v>0.1203569966015772</v>
+      </c>
+      <c r="J20">
+        <v>0.1203569966015772</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0.8184133333333333</v>
+      </c>
+      <c r="N20">
+        <v>2.45524</v>
+      </c>
+      <c r="O20">
+        <v>0.7437249982885396</v>
+      </c>
+      <c r="P20">
+        <v>0.7437249982885394</v>
+      </c>
+      <c r="Q20">
+        <v>0.2418954280844445</v>
+      </c>
+      <c r="R20">
+        <v>2.17705885276</v>
+      </c>
+      <c r="S20">
+        <v>0.08951250709152175</v>
+      </c>
+      <c r="T20">
+        <v>0.08951250709152173</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.2955663333333334</v>
+      </c>
+      <c r="H21">
+        <v>0.8866990000000001</v>
+      </c>
+      <c r="I21">
+        <v>0.1203569966015772</v>
+      </c>
+      <c r="J21">
+        <v>0.1203569966015772</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M21">
+        <v>0.05132733333333334</v>
+      </c>
+      <c r="N21">
+        <v>0.153982</v>
+      </c>
+      <c r="O21">
+        <v>0.04664320501721457</v>
+      </c>
+      <c r="P21">
+        <v>0.04664320501721456</v>
+      </c>
+      <c r="Q21">
+        <v>0.01517063171311111</v>
+      </c>
+      <c r="R21">
+        <v>0.136535685418</v>
+      </c>
+      <c r="S21">
+        <v>0.005613836067743562</v>
+      </c>
+      <c r="T21">
+        <v>0.00561383606774356</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G22">
+        <v>0.133784</v>
+      </c>
+      <c r="H22">
+        <v>0.401352</v>
+      </c>
+      <c r="I22">
+        <v>0.05447792463963103</v>
+      </c>
+      <c r="J22">
+        <v>0.05447792463963103</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.1856783333333334</v>
+      </c>
+      <c r="N22">
+        <v>0.5570350000000001</v>
+      </c>
+      <c r="O22">
+        <v>0.1687333435516107</v>
+      </c>
+      <c r="P22">
+        <v>0.1687333435516107</v>
+      </c>
+      <c r="Q22">
+        <v>0.02484079014666667</v>
+      </c>
+      <c r="R22">
+        <v>0.22356711132</v>
+      </c>
+      <c r="S22">
+        <v>0.009192242374197621</v>
+      </c>
+      <c r="T22">
+        <v>0.009192242374197619</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G23">
+        <v>0.133784</v>
+      </c>
+      <c r="H23">
+        <v>0.401352</v>
+      </c>
+      <c r="I23">
+        <v>0.05447792463963103</v>
+      </c>
+      <c r="J23">
+        <v>0.05447792463963103</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M23">
+        <v>0.04500566666666667</v>
+      </c>
+      <c r="N23">
+        <v>0.135017</v>
+      </c>
+      <c r="O23">
+        <v>0.04089845314263524</v>
+      </c>
+      <c r="P23">
+        <v>0.04089845314263523</v>
+      </c>
+      <c r="Q23">
+        <v>0.006021038109333333</v>
+      </c>
+      <c r="R23">
+        <v>0.05418934298399999</v>
+      </c>
+      <c r="S23">
+        <v>0.002228062848181963</v>
+      </c>
+      <c r="T23">
+        <v>0.002228062848181963</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G24">
+        <v>0.133784</v>
+      </c>
+      <c r="H24">
+        <v>0.401352</v>
+      </c>
+      <c r="I24">
+        <v>0.05447792463963103</v>
+      </c>
+      <c r="J24">
+        <v>0.05447792463963103</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.8184133333333333</v>
+      </c>
+      <c r="N24">
+        <v>2.45524</v>
+      </c>
+      <c r="O24">
+        <v>0.7437249982885396</v>
+      </c>
+      <c r="P24">
+        <v>0.7437249982885394</v>
+      </c>
+      <c r="Q24">
+        <v>0.1094906093866667</v>
+      </c>
+      <c r="R24">
+        <v>0.9854154844799999</v>
+      </c>
+      <c r="S24">
+        <v>0.04051659440937277</v>
+      </c>
+      <c r="T24">
+        <v>0.04051659440937277</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.133784</v>
+      </c>
+      <c r="H25">
+        <v>0.401352</v>
+      </c>
+      <c r="I25">
+        <v>0.05447792463963103</v>
+      </c>
+      <c r="J25">
+        <v>0.05447792463963103</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M25">
+        <v>0.05132733333333334</v>
+      </c>
+      <c r="N25">
+        <v>0.153982</v>
+      </c>
+      <c r="O25">
+        <v>0.04664320501721457</v>
+      </c>
+      <c r="P25">
+        <v>0.04664320501721456</v>
+      </c>
+      <c r="Q25">
+        <v>0.006866775962666666</v>
+      </c>
+      <c r="R25">
+        <v>0.061800983664</v>
+      </c>
+      <c r="S25">
+        <v>0.002541025007878675</v>
+      </c>
+      <c r="T25">
+        <v>0.002541025007878675</v>
       </c>
     </row>
   </sheetData>
